--- a/www/IndicatorsPerCountry/CentralAfricanRepublic_GDPperCapita_TerritorialRef_1960_2012_CCode_140.xlsx
+++ b/www/IndicatorsPerCountry/CentralAfricanRepublic_GDPperCapita_TerritorialRef_1960_2012_CCode_140.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/CentralAfricanRepublic_GDPperCapita_TerritorialRef_1960_2012_CCode_140.xlsx
+++ b/www/IndicatorsPerCountry/CentralAfricanRepublic_GDPperCapita_TerritorialRef_1960_2012_CCode_140.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>934</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>943</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>878</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>843</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>838</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>642.417304168</t>
-  </si>
-  <si>
-    <t>620.515251397</t>
-  </si>
-  <si>
-    <t>564.380783727</t>
-  </si>
-  <si>
-    <t>549.162725724</t>
-  </si>
-  <si>
-    <t>568.831987742</t>
-  </si>
-  <si>
-    <t>585.414847531</t>
-  </si>
-  <si>
-    <t>530.207897307</t>
-  </si>
-  <si>
-    <t>558.584939772</t>
-  </si>
-  <si>
-    <t>567.52908884</t>
-  </si>
-  <si>
-    <t>575.915498572</t>
-  </si>
-  <si>
-    <t>574.835309049</t>
-  </si>
-  <si>
-    <t>568.256709969</t>
-  </si>
-  <si>
-    <t>557.054135893</t>
-  </si>
-  <si>
-    <t>506.572572714</t>
-  </si>
-  <si>
-    <t>505.99341299</t>
-  </si>
-  <si>
-    <t>510.101421828</t>
-  </si>
-  <si>
-    <t>521.260080711</t>
-  </si>
-  <si>
-    <t>532.281137647</t>
-  </si>
-  <si>
-    <t>535.738795274</t>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1567</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1219</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1006.99580160323</t>
+  </si>
+  <si>
+    <t>965.193376349712</t>
+  </si>
+  <si>
+    <t>933.060174663238</t>
+  </si>
+  <si>
+    <t>952.017417741463</t>
+  </si>
+  <si>
+    <t>978.556614747978</t>
+  </si>
+  <si>
+    <t>885.886400596378</t>
+  </si>
+  <si>
+    <t>917.47997639614</t>
+  </si>
+  <si>
+    <t>936.238262138212</t>
+  </si>
+  <si>
+    <t>967.843203629496</t>
+  </si>
+  <si>
+    <t>963.946180555058</t>
+  </si>
+  <si>
+    <t>952.511809067715</t>
+  </si>
+  <si>
+    <t>928.771638513173</t>
+  </si>
+  <si>
+    <t>845.505545088412</t>
+  </si>
+  <si>
+    <t>853.182021590341</t>
+  </si>
+  <si>
+    <t>858.523700017484</t>
+  </si>
+  <si>
+    <t>881.485165116962</t>
+  </si>
+  <si>
+    <t>897.478307013892</t>
+  </si>
+  <si>
+    <t>901.851345375175</t>
+  </si>
+  <si>
+    <t>898.700480180656</t>
+  </si>
+  <si>
+    <t>910.310378860757</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>589</t>
   </si>
   <si>
     <t>Description</t>
@@ -679,7 +703,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -696,7 +720,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -713,7 +737,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -730,7 +754,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -747,7 +771,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -764,7 +788,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -781,7 +805,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -798,7 +822,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -815,7 +839,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -832,7 +856,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -849,7 +873,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +890,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -883,7 +907,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +924,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +941,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -934,7 +958,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -951,7 +975,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -968,7 +992,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1009,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1309,6 +1333,142 @@
       </c>
       <c r="E60" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
